--- a/AgentProxy/resources/customer/customer#1.xlsx
+++ b/AgentProxy/resources/customer/customer#1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="5985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="5985" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="job1" sheetId="11" r:id="rId1"/>
@@ -12,8 +12,8 @@
     <sheet name="job3" sheetId="3" r:id="rId3"/>
     <sheet name="job4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="152511"/>
+  <oleSize ref="A1:L17"/>
 </workbook>
 </file>
 
@@ -937,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>2.2999999999999998</v>
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>
@@ -984,7 +984,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,7 +1089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
